--- a/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
@@ -9,6 +9,10 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Basket_Allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Basket_Courses" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Common_Slots_Info" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,27 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Basket: HSS_B3</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>CS304</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -501,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>MA261</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>DA261</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -565,22 +569,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -597,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B3 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>DA262 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -629,22 +633,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Basket: HSS_B3</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -661,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Basket: HSS_B3 (Tutorial)</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,17 +675,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261 (Tutorial)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DA261 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -739,27 +743,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Basket: HSS_B3</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -771,22 +775,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -835,17 +839,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -855,7 +859,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -867,27 +871,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Basket: ELECTIVE_B3 (Tutorial)</t>
+          <t>MA262 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DA262 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>MA261 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -899,27 +903,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Basket: HSS_B3</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DA262</t>
         </is>
       </c>
     </row>
@@ -931,27 +935,3130 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Basket: HSS_B3 (Tutorial)</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>CS307 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DA261 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Applicable Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EC251, EC252, CS253, EC254, CS152, ASD352, CS251, EC251, EC252, CS253, EC254, CS152, ASD352</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>EC251, EC252, EC253, EC254, CS162, DE352, CS251</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>✅ YES</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Specificity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HSS (Ethics &amp; 2+1)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Electronics Systems design-1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Introduction of RFIC design</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Introduction to embedded signals</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Electronic Systems engineering</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>User Interaction and expirence design</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Statistical Programming</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Data Handling</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Neuro-Linguistics</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Leadership I</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sociology for India</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Social Impact</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Holistic Personality</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Electronics Systems design - 1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Introduction of RFIC</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Introduction to embedded signels</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Electronic Systems engineering</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>User Interaction (Minor)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slots</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>13</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>13</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>13</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>13</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>13</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>13</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>7</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>7</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>6</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>6</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>6</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 1 Day</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 1 Time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 2 Day</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture 2 Time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Day</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Time</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Courses</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Sections</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Consistency</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>EC251, EC252, CS253, EC254, CS152, ASD352, CS251, EC251, EC252, CS253, EC254, CS152, ASD352</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>A &amp; B (BOTH)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>✅ Achieved</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>✅ IDENTICAL across all</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON TIMETABLE SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>EC251, EC252, EC253, EC254, CS162, DE352, CS251</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>A &amp; B (BOTH)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>✅ Achieved</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>✅ IDENTICAL across all</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>FIXED COMMON TIMETABLE SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>A &amp; B (BOTH)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>✅ Achieved</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>✅ IDENTICAL across all</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>FIXED COMMON TIMETABLE SLOTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>A &amp; B (BOTH)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>✅ Achieved</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>✅ IDENTICAL across all</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>FIXED COMMON TIMETABLE SLOTS</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
@@ -13,6 +13,8 @@
     <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Basket_Courses" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Common_Slots_Info" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Semester_Rules" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Classroom_Utilization" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,7 +475,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>MA262 [C405]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,17 +485,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>DA261 [C405]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>CS304 [C405]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -505,27 +507,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262 [C405]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DA262 [C405]</t>
         </is>
       </c>
     </row>
@@ -569,27 +571,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B3 [C405]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>DA261 [C405]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B3 [C405]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>MA261 [C405]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA261 [C405]</t>
         </is>
       </c>
     </row>
@@ -601,27 +603,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>MA261 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>DA262 (Tutorial)</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>CS307 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -633,27 +635,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CS304 [C405]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS307 [C405]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>DA262 [C405]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS307 [C405]</t>
         </is>
       </c>
     </row>
@@ -665,27 +667,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DA262 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>CS304 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>DA261 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DA261 (Tutorial)</t>
+          <t>MA262 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -743,27 +745,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>DA262 [C405]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>DA262 [C405]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>CS307 [C405]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>CS307 [C405]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA262 [C405]</t>
         </is>
       </c>
     </row>
@@ -775,22 +777,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>MA261 [C405]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DA261 [C405]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 [C405]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -839,27 +841,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B3 [C405]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B3 [C405]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DA261 [C405]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -871,27 +873,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MA262 (Tutorial)</t>
+          <t>CS307 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>ELECTIVE_B3 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DA262 (Tutorial)</t>
+          <t>MA262 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MA261 (Tutorial)</t>
+          <t>DA262 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
+          <t>MA261 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -903,27 +905,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>MA262 [C405]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS304 [C405]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MA261 [C405]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -935,17 +937,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS307 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DA261 (Tutorial)</t>
+          <t>DA261 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -955,7 +957,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 (Tutorial) [C405]</t>
         </is>
       </c>
     </row>
@@ -970,7 +972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1087,177 +1089,6 @@
         </is>
       </c>
       <c r="K2" t="inlineStr">
-        <is>
-          <t>FIXED COMMON SLOTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EC251, EC252, EC253, EC254, CS162, DE352, CS251</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Semester 3</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>FIXED COMMON SLOTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Semester 3</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>FIXED COMMON SLOTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HSS_B5</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>✅ YES</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Semester 3</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>FIXED COMMON SLOTS</t>
         </is>
@@ -2693,7 +2524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3188,496 +3019,6 @@
         </is>
       </c>
       <c r="G14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>7</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>7</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>EC253</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>7</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>7</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>CS162</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>7</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>DE352</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>7</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>7</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>HS261</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>6</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>HS361</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>6</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>6</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>6</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>6</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>6</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>HSS_B5</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -3694,7 +3035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3846,219 +3187,1333 @@
         </is>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rule</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Exclusion</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Reason</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Scheduled Baskets</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Schedule only ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Exclude ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Curriculum requirement - Semester 3 focuses on B3 electives</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>✅ Applied</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Recreation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Semester 3</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>EC251, EC252, EC253, EC254, CS162, DE352, CS251</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>A &amp; B (BOTH)</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>✅ Achieved</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>✅ IDENTICAL across all</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>FIXED COMMON TIMETABLE SLOTS</t>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Semester 3</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>A &amp; B (BOTH)</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>✅ Achieved</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>✅ IDENTICAL across all</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>FIXED COMMON TIMETABLE SLOTS</t>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Semester 3</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>CSE, DSAI, ECE (ALL)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>A &amp; B (BOTH)</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>✅ Achieved</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>✅ IDENTICAL across all</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>FIXED COMMON TIMETABLE SLOTS</t>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L307</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>56</v>
+      </c>
+      <c r="E33" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>100</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Computers</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Classroom_Utilization" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Classroom_Allocation" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,11 +437,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Mon</t>
@@ -467,152 +464,152 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CS304 [C404]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CS307 [C302]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DA262 [C304]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MA261 [C004]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>DA262 [C402]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>DA262 [C402]</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>MA262 [C102]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DA262 [C304]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MA261 [C404]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS304 [C404]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS304 [C203]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS307 [C201]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>DA261 [C102]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 [C002]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DA261 [C404]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 [C002]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MA262 [C102]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [L406]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3 [C402]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>DA261 (Lab) [L306]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3 [C402]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CS307 [C201]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MA262 [C202]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>DA261 (Lab) [L306]</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C003]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -622,61 +619,61 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>DA261 (Lab) [L406]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MA261 [C404]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L306]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CS307 [C302]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MA262 [C202]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L306]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L406]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS304 [C203]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L306]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Lab) [L306]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L406]</t>
+          <t>CS304 (Tutorial) [C004]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -710,258 +707,3776 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MA262 [C205]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS307 [C404]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MA262 [C205]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS307 [C404]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DA262 [C002]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS304 [C201]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 [C303]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MA261 [C303]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 [C303]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MA261 [C303]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L408]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial) [C402]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L408]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L306]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS304 [C201]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DA261 [C201]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>DA262 [C002]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L306]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Time Slot</t>
+          <t>Room Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Weekly Hours (Timetable)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Daily Avg Hours (Timetable)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DA262 [C002]</t>
+          <t>Recreation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS304 [C003]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>DA261 [C102]</t>
-        </is>
-      </c>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA261 [C405]</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS307 [C002]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>MA262 [C002]</t>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C405]</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3 [C405]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CS307 [C002]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MA261 [C405]</t>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C101]</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L407]</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS304 [C003]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>DA262 [C002]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>DA261 (Lab) [L407]</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Hardware Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>6</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>15</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L307</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>L308</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Research Scholar Lab</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C401</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C403</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C405</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L407]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>DA261 (Lab) [L407]</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>L306</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>C404</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>C402</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>classroom without projector</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
@@ -471,27 +471,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS304 [C404]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS307 [C302]</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DA262 [C304]</t>
+          <t>DA261 [C302]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DA262 [C003]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262 [C204]</t>
         </is>
       </c>
     </row>
@@ -503,27 +503,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C102]</t>
+          <t>CS304 [C303]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DA262 [C304]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA261 [C404]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS304 [C404]</t>
+          <t>MA262 [C204]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
     </row>
@@ -567,27 +567,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C002]</t>
+          <t>ELECTIVE_B3 [C104]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DA261 [C404]</t>
+          <t>DA262 [C003]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C002]</t>
+          <t>ELECTIVE_B3 [C104]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA262 [C102]</t>
+          <t>CS307 (Lab) [L306]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L406]</t>
+          <t>DA261 (Lab) [L306]</t>
         </is>
       </c>
     </row>
@@ -614,12 +614,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Lab) [L306]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L406]</t>
+          <t>DA261 (Lab) [L306]</t>
         </is>
       </c>
     </row>
@@ -631,27 +631,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA261 [C404]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L306]</t>
+          <t>DA262 (Lab) [L407]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS307 [C302]</t>
+          <t>MA261 [C104]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261 [C104]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L306]</t>
+          <t>CS304 [C303]</t>
         </is>
       </c>
     </row>
@@ -668,12 +668,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L306]</t>
+          <t>DA262 (Lab) [L407]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C004]</t>
+          <t>CS304 (Tutorial) [C302]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L306]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -746,22 +746,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA262 [C205]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS307 [C404]</t>
+          <t>CS304 [C003]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA262 [C205]</t>
+          <t>DA261 [C302]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 [C003]</t>
         </is>
       </c>
     </row>
@@ -773,27 +773,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS307 [C404]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262 [C405]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DA262 [C002]</t>
+          <t>MA261 [C201]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS304 [C201]</t>
+          <t>CS307 [C201]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262 [C405]</t>
         </is>
       </c>
     </row>
@@ -837,27 +837,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C303]</t>
+          <t>ELECTIVE_B3 [C101]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MA261 [C303]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C303]</t>
+          <t>ELECTIVE_B3 [C101]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA261 [C303]</t>
+          <t>DA262 [C305]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>MA261 [C201]</t>
         </is>
       </c>
     </row>
@@ -869,19 +869,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CS304 (Tutorial) [C405]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial) [C402]</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Free</t>
@@ -889,7 +889,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -901,27 +901,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>DA261 (Lab) [L406]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS307 [C201]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>DA262 (Lab) [L306]</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS304 [C201]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>DA261 (Lab) [L407]</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DA261 [C201]</t>
+          <t>CS307 (Lab) [L408]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DA262 [C002]</t>
+          <t>DA262 [C305]</t>
         </is>
       </c>
     </row>
@@ -933,22 +933,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>DA261 (Lab) [L406]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>DA262 (Lab) [L306]</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>DA261 (Lab) [L407]</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Lab) [L408]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1099,16 +1099,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1541,16 +1541,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1779,16 +1779,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1813,16 +1813,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1983,16 +1983,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2051,16 +2051,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>26.25</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -2356,17 +2356,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2406,32 +2406,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2461,32 +2461,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -2521,17 +2521,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2541,12 +2541,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -2626,12 +2626,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -2681,22 +2681,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2736,22 +2736,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2796,17 +2796,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2846,32 +2846,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2901,32 +2901,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2956,22 +2956,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3011,37 +3011,37 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3071,17 +3071,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3121,12 +3121,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3181,17 +3181,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3291,12 +3291,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -3346,17 +3346,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3401,17 +3401,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3456,17 +3456,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3516,12 +3516,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3676,17 +3676,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3726,12 +3726,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3741,17 +3741,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3786,17 +3786,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3841,27 +3841,27 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3896,17 +3896,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>C402</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -4001,22 +4001,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4026,12 +4026,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -4056,22 +4056,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4081,12 +4081,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -4116,17 +4116,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -4171,32 +4171,32 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4226,32 +4226,32 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4276,32 +4276,32 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -4336,22 +4336,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -4391,32 +4391,32 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -4456,17 +4456,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">

--- a/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
@@ -476,22 +476,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS307 [C102]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DA261 [C302]</t>
+          <t>MA262 [C403]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DA262 [C003]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA262 [C204]</t>
+          <t>CS304 [C403]</t>
         </is>
       </c>
     </row>
@@ -503,7 +503,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS304 [C303]</t>
+          <t>CS307 [C304]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,17 +513,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>DA262 [C401]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MA262 [C204]</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS307 [C102]</t>
+          <t>DA262 [C401]</t>
         </is>
       </c>
     </row>
@@ -567,27 +567,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C104]</t>
+          <t>ELECTIVE_B3 [C004]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DA262 [C003]</t>
+          <t>MA261 [C202]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C104]</t>
+          <t>ELECTIVE_B3 [C004]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L306]</t>
+          <t>CS304 [C403]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L306]</t>
+          <t>DA261 (Lab) [L406]</t>
         </is>
       </c>
     </row>
@@ -609,17 +609,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>CS304 (Tutorial) [C201]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L306]</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L306]</t>
+          <t>DA261 (Lab) [L406]</t>
         </is>
       </c>
     </row>
@@ -631,27 +631,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA261 [C202]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L407]</t>
+          <t>MA262 [C403]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA261 [C104]</t>
+          <t>DA261 [C203]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA261 [C104]</t>
+          <t>CS307 [C304]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS304 [C303]</t>
+          <t>DA262 (Lab) [L408]</t>
         </is>
       </c>
     </row>
@@ -668,12 +668,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L407]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C302]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DA262 (Lab) [L408]</t>
         </is>
       </c>
     </row>
@@ -746,22 +746,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>DA262 [C003]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS304 [C203]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS304 [C003]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>DA261 [C302]</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS304 [C003]</t>
+          <t>DA262 [C003]</t>
         </is>
       </c>
     </row>
@@ -778,22 +778,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>MA261 [C304]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>MA262 [C405]</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MA261 [C201]</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [C201]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MA262 [C405]</t>
+          <t>CS304 [C203]</t>
         </is>
       </c>
     </row>
@@ -837,27 +837,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C101]</t>
+          <t>ELECTIVE_B3 [C204]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262 [C405]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C101]</t>
+          <t>ELECTIVE_B3 [C204]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DA262 [C305]</t>
+          <t>CS307 [C204]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA261 [C201]</t>
+          <t>CS307 [C204]</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C405]</t>
+          <t>CS304 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -901,27 +901,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>DA262 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>DA261 (Lab) [L406]</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS307 [C201]</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L306]</t>
+          <t>MA261 [C304]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>DA261 [C403]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DA262 [C305]</t>
+          <t>CS307 (Lab) [L306]</t>
         </is>
       </c>
     </row>
@@ -933,27 +933,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>DA262 (Lab) [L407]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>DA261 (Lab) [L406]</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L306]</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Lab) [L306]</t>
         </is>
       </c>
     </row>
@@ -1099,16 +1099,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1201,16 +1201,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1439,16 +1439,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1473,16 +1473,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1779,16 +1779,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1813,16 +1813,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="E26" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>18.75</v>
+        <v>6.25</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2119,16 +2119,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2215,7 +2215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2306,12 +2306,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2366,17 +2366,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2406,22 +2406,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2471,22 +2471,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -2526,12 +2526,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -2571,22 +2571,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -2631,17 +2631,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2696,17 +2696,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2741,17 +2741,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2796,17 +2796,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2851,27 +2851,27 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2906,17 +2906,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2956,22 +2956,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2981,12 +2981,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3011,22 +3011,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C401</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3066,22 +3066,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3091,12 +3091,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3126,17 +3126,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3181,32 +3181,32 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3236,27 +3236,27 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>classroom without projector</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3281,27 +3281,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3336,27 +3336,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3401,17 +3401,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3421,12 +3421,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -3456,17 +3456,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3506,37 +3506,37 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3561,22 +3561,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3586,12 +3586,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3681,12 +3681,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3696,12 +3696,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3726,37 +3726,37 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3786,17 +3786,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3841,17 +3841,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3896,17 +3896,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>L306</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -4006,17 +4006,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4061,17 +4061,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C403</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4111,12 +4111,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4126,17 +4126,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4166,37 +4166,37 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4221,37 +4221,37 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>classroom without projector</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4281,32 +4281,32 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -4336,17 +4336,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>C405</t>
+          <t>L306</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -4356,125 +4356,15 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>3</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>C201</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>3</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>DA262</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>

--- a/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
@@ -474,27 +474,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>DA262 [C003]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MA261 [C204]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS304 [C104]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MA262 [C201]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MA261 [C205]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CS307 [C004]</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS304 [C302]</t>
+          <t>DA262 [C003]</t>
         </is>
       </c>
     </row>
@@ -506,27 +506,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS304 [C302]</t>
+          <t>CS307 [C405]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>MA262 [C304]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>DA261 [C404]</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA261 [C205]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -570,27 +570,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C303]</t>
+          <t>ELECTIVE_B3 [C304]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L406]</t>
+          <t>CS307 (Lab) [L407]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C303]</t>
+          <t>ELECTIVE_B3 [C304]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DA262 [C003]</t>
+          <t>CS307 [C405]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DA261 [C303]</t>
         </is>
       </c>
     </row>
@@ -602,12 +602,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 (Tutorial) [C405]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L406]</t>
+          <t>CS307 (Lab) [L407]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -634,27 +634,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>DA262 (Lab) [L408]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DA262 [C003]</t>
+          <t>CS304 [C104]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L407]</t>
+          <t>MA262 [C304]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA262 [C201]</t>
+          <t>MA261 [C204]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DA261 (Lab) [L306]</t>
         </is>
       </c>
     </row>
@@ -666,17 +666,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>DA262 (Lab) [L408]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C002]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L407]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DA261 (Lab) [L306]</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262 [C304]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DA261 [C402]</t>
+          <t>DA261 [C201]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS304 [C302]</t>
+          <t>DA262 [C402]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262 [C304]</t>
         </is>
       </c>
     </row>
@@ -776,27 +776,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>DA262 [C402]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MA262 [C205]</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA262 [C205]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DA262 [C104]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>MA261 [C202]</t>
         </is>
       </c>
     </row>
@@ -840,27 +840,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C201]</t>
+          <t>ELECTIVE_B3 [C205]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DA262 [C104]</t>
+          <t>MA261 [C202]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 [C201]</t>
+          <t>ELECTIVE_B3 [C205]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L406]</t>
+          <t>DA261 (Lab) [L407]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS304 [C302]</t>
+          <t>CS304 [C004]</t>
         </is>
       </c>
     </row>
@@ -882,12 +882,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C101]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L406]</t>
+          <t>DA261 (Lab) [L407]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -904,27 +904,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA261 [C204]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DA262 (Lab) [L406]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L306]</t>
+          <t>CS304 [C004]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>CS307 [C101]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MA261 [C204]</t>
+          <t>CS307 (Lab) [L407]</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>DA262 (Lab) [L406]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>DA261 (Lab) [L306]</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>CS304 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Lab) [L407]</t>
         </is>
       </c>
     </row>
@@ -1029,34 +1029,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**CS304**</t>
+          <t>**DA262**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Data Handling</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Siddharth</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>2/1</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>No</t>
@@ -1064,44 +1064,44 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C002, C302</t>
+          <t>L408, C003</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B3**</t>
+          <t>**CS307**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1116,39 +1116,39 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L407, C405</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>–</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1163,34 +1163,34 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C004, L408</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**CS304**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1210,29 +1210,29 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C104, C405</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**DA262**</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Siddharth</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1252,29 +1252,29 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>L406, C003</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**MA262**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C404, L407</t>
+          <t>C303, L306</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>⚠️ 5 issues</t>
+          <t>[WARN] 5 issues</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1471,34 +1471,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B3**</t>
+          <t>**MA262**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>No</t>
@@ -1511,29 +1511,29 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**DA262**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Data Handling</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Siddharth</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1553,44 +1553,44 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C402, L406</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>–</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1605,29 +1605,29 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C101, L408</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**CS307**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1652,29 +1652,29 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C101, L407</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**DA262**</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Siddharth</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1694,12 +1694,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>L406, C104</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>L306, C402</t>
+          <t>C201, L407</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C302, C101</t>
+          <t>C104, C004</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>⚠️ 5 issues</t>
+          <t>[WARN] 5 issues</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1913,7 +1913,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -1944,29 +1944,29 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1999,17 +1999,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -2042,7 +2042,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A, B</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial), CS307</t>
+          <t>CS304, CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2085,7 +2085,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C201</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -2116,19 +2116,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2147,24 +2147,24 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>MA262, ELECTIVE_B3</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -2233,31 +2233,31 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>MA262, MA261</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2276,11 +2276,11 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -2288,19 +2288,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2319,24 +2319,24 @@
         </is>
       </c>
       <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>2</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>ELECTIVE_B3, MA262</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2374,19 +2374,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C404</t>
+          <t>C405</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2413,16 +2413,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>CS307, CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -2491,11 +2491,11 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -2534,24 +2534,24 @@
         </is>
       </c>
       <c r="E16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>A, B</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>2</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>DA261 (Lab), CS307 (Lab)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
@@ -2577,11 +2577,11 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A, B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -2589,12 +2589,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -2707,22 +2707,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -2764,22 +2764,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -2821,22 +2821,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>✅ FULLY COMPLIANT</t>
+          <t>[OK] FULLY COMPLIANT</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -2878,22 +2878,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>✅ FULLY COMPLIANT</t>
+          <t>[OK] FULLY COMPLIANT</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -2935,22 +2935,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -2992,22 +2992,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>⚠️ PARTIAL</t>
+          <t>[WARN] PARTIAL</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-03 12:04</t>
+          <t>2025-12-12 16:58</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>⚠️ NEEDS REVIEW</t>
+          <t>[WARN] NEEDS REVIEW</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">

--- a/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Basket_Allocation" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Classroom_Utilization" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Classroom_Allocation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Basket_Course_Allocations" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,251 +440,216 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>Fri</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MA262</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>MA262 [C002]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DA262 [C204]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS304 [C204]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS307 [C001]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>MA261</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MA261 [C002]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CS304 [C203]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS307 [C001]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [L208]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [L208]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>DA262</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DA262 [C204]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L208]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>DA262</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>DA261</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>DA261 (Lab)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L208]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DA261 (Lab)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -698,7 +666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,253 +675,218 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>Fri</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MA262</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>MA262 [C002]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DA262 [C102]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS304 [C205]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CS307 [C101]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>MA261</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MA261 [C002]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CS304 [C102]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS307 [C104]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [C204]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [C203]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [C202]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [C202]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>DA261</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DA262 [C202]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [C202]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>DA262</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>12:00-13:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [C203]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>DA261 (Lab)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>DA262</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>DA261 (Lab)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>DA262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -1039,7 +972,6 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>EC251, EC252, CS253, EC254, CS152, ASD352, CS251, EC251, EC252, CS253, EC254, CS152, ASD352</t>
@@ -2486,4 +2418,4568 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>15</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>15</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>15</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
@@ -7,13 +7,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Basket_Allocation" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Course_Summary" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Classroom_Utilization" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Classroom_Allocation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Basket_Course_Allocations" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Room_Allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="LTPSC_Compliance" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Executive_Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Basket_Allocation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Basket_Courses" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Classroom_Allocation" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Section_A" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Classroom_Utilization" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Basket_Course_Allocations" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,20 +452,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Tue</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Wed</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Thu</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Fri</t>
         </is>
@@ -469,133 +479,158 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DA262 [C204]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS304 [C204]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS307 [C001]</t>
+          <t>MINOR: VLSI [C202]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA261 [C002]</t>
+          <t>MA262 [C001]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS304 [C203]</t>
+          <t>MA262 [C001]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307 [C001]</t>
+          <t>DA262 [C202]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 [C202]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CS307 [C202]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA261 [C001]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA261 [C001]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS304 [C202]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS307 [C202]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L208]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L208]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DA261 (Lab) [L404]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L402]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -604,17 +639,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DA262 [C204]</t>
+          <t>CS304 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L208]</t>
+          <t>DA261 (Lab) [L404]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -623,6 +658,11 @@
         </is>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L402]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -631,27 +671,2049 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DA261 [C202]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DA262 [C202]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C202]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C202]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C202]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C202]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C202]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C202]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C202]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C202]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C202]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C202]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MA262 [C001]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MA262 [C001]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DA262 [C202]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS304 [C202]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CS307 [C202]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MA261 [C001]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MA261 [C001]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CS304 [C202]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CS307 [C202]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [L107]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L106]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial) [C202]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DA261 (Lab) [L107]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L106]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>DA261 [C202]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DA262 [C202]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L106]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L106]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C202]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C202]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C202]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C202]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C202]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L208]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>66.25</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -666,7 +2728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,216 +2739,423 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Time Slot</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Faculty</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>LTPSC</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Lect/Tuts/Week</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Labs/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Combined Class</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Room</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>**MA262**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DA262 [C102]</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CS304 [C205]</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>C001</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA261 [C002]</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS304 [C102]</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307 [C104]</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>C001</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>**CS304**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [C204]</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [C203]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>C202</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>**DA261**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [C202]</t>
+          <t>Statistical Programming</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Ramesh Athe</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [C202]</t>
+          <t>1-0-2-0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>1/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>C202, L404</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>**DA262**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DA262 [C202]</t>
+          <t>Data Handling</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [C202]</t>
+          <t>Siddharth</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>C202, L408</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>**CS307**</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [C203]</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>C202, L402</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>**SUMMARY**</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Total Courses: 7</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Complete: 2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Rate: 28.6%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lectures: 13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Labs: 6</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[WARN] 5 issues</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>--</t>
         </is>
       </c>
     </row>
@@ -901,7 +3170,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,87 +3181,257 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>Room Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Time Slot</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Tutorial Day</t>
+          <t>Facilities</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Courses in Basket</t>
+          <t>Total Sessions</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Number of Courses</t>
+          <t>Sections</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Sections</t>
+          <t>Courses Assigned</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Branches</t>
+          <t>Sample Courses</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Semester</t>
+          <t>Utilization (Sessions/Day)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>EC251, EC252, CS253, EC254, CS152, ASD352, CS251, EC251, EC252, CS253, EC254, CS152, ASD352</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>13</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>A &amp; B (Common)</t>
-        </is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>MA261, MA262</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Semester 3</t>
+          <t>0.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>18</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>CS304, MINOR: Generative Ai, MINOR: Cybersecurity...</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -1002,6 +3441,825 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Statistical Programming</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1/0/2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1/0/2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Data Handling</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2-0-2-0-3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2026-01-18 19:02</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 6, Elective: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/7 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Elective Baskets</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Baskets Scheduled</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13 courses in baskets</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5/36</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Utilization: 13.9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A: 66.7%, B: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Score: 40.0/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slot 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Days Separation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Applicable Branches</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Slot Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EC251, EC252, CS253, EC254, CS152, ASD352, CS251, EC251, EC252, CS253, EC254, CS152, ASD352</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK] YES</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE, DSAI, ECE (ALL)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>FIXED COMMON SLOTS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2420,13 +5678,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2437,1242 +5695,492 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Room Number</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Capacity</t>
+          <t>Lecture Slots</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Weekly Hours (Timetable)</t>
+          <t>Tutorial Slot</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Daily Avg Hours (Timetable)</t>
+          <t>Total Courses in Basket</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Exam Sessions</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Utilization Rate (%)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Facilities</t>
+          <t>Common for Both Sections</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>6</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>15</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>13</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>13</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
+        <v>13</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1.5</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>13</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>3</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>13</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C103</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>library</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Computers, Books</t>
+        <v>13</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.5</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Projector</t>
+        <v>13</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Equipment</t>
+        <v>13</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Computers</t>
+        <v>13</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Computers</t>
+        <v>13</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C201</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Examination room</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Tables, Chairs</t>
+        <v>13</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>6</v>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>15</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>6</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>15</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>L207</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>L208</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>6</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>15</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>C301</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Physics Lab</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Physics Equipment</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>C303</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>C306</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>C307</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>RESEARCH LAB</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>C308</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>RESEARCH LAB</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>L401</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>EMPTY</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>3</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>TV</t>
+        <v>13</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -3681,13 +6189,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3778,22 +6286,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3812,12 +6320,12 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -3837,12 +6345,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3855,11 +6363,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="b">
         <v>0</v>
       </c>
@@ -3871,12 +6375,12 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -3896,29 +6400,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="b">
         <v>0</v>
       </c>
@@ -3930,12 +6430,12 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>MA261</t>
         </is>
       </c>
     </row>
@@ -3955,27 +6455,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -3989,12 +6489,12 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>CS304 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -4014,12 +6514,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4034,7 +6534,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -4048,12 +6548,12 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>DA261</t>
         </is>
       </c>
     </row>
@@ -4073,12 +6573,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4093,7 +6593,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -4107,12 +6607,12 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -4132,12 +6632,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4152,7 +6652,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -4166,12 +6666,12 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -4191,29 +6691,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="b">
         <v>0</v>
       </c>
@@ -4225,12 +6721,12 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>MA262</t>
         </is>
       </c>
     </row>
@@ -4250,29 +6746,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="b">
         <v>0</v>
       </c>
@@ -4284,12 +6776,12 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>MA261</t>
         </is>
       </c>
     </row>
@@ -4309,27 +6801,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -4343,12 +6835,12 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
     </row>
@@ -4368,25 +6860,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
       <c r="I12" t="b">
         <v>0</v>
       </c>
@@ -4398,12 +6894,12 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
     </row>
@@ -4423,12 +6919,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4438,12 +6934,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I13" t="b">
@@ -4457,12 +6953,12 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DA262</t>
         </is>
       </c>
     </row>
@@ -4482,12 +6978,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -4497,12 +6993,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I14" t="b">
@@ -4516,12 +7012,12 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -4541,25 +7037,29 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I15" t="b">
         <v>0</v>
       </c>
@@ -4571,12 +7071,12 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -4596,27 +7096,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -4624,18 +7124,18 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>DA262</t>
         </is>
       </c>
     </row>
@@ -4660,22 +7160,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -4683,22 +7183,18 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -4723,22 +7219,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -4746,22 +7242,18 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -4786,22 +7278,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -4809,22 +7301,18 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -4849,22 +7337,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -4872,22 +7360,18 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -4907,27 +7391,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -4935,22 +7419,18 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -4970,27 +7450,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -4998,22 +7478,18 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -5033,27 +7509,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -5061,22 +7537,18 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -5101,22 +7573,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -5124,13 +7596,13 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -5150,32 +7622,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -5189,12 +7661,12 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
     </row>
@@ -5209,27 +7681,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -5248,12 +7720,12 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -5268,17 +7740,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -5293,7 +7765,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -5307,12 +7779,12 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -5327,17 +7799,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -5371,7 +7843,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -5386,17 +7858,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -5430,7 +7902,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -5445,32 +7917,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -5478,18 +7950,22 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -5504,32 +7980,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -5537,18 +8013,22 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -5563,32 +8043,32 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -5596,18 +8076,22 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -5622,32 +8106,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -5655,18 +8139,22 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -5681,32 +8169,32 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -5714,18 +8202,22 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -5740,32 +8232,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -5773,18 +8265,22 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -5799,51 +8295,55 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -5858,32 +8358,32 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -5891,18 +8391,22 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -5917,32 +8421,32 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -5950,18 +8454,22 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -5976,32 +8484,32 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -6012,15 +8520,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -6035,7 +8547,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -6045,7 +8557,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -6083,7 +8595,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -6098,7 +8610,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -6108,7 +8620,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -6146,7 +8658,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -6161,7 +8673,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -6171,7 +8683,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -6209,7 +8721,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -6224,7 +8736,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -6234,7 +8746,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -6272,7 +8784,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -6287,17 +8799,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -6323,11 +8835,7 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>C004</t>
@@ -6335,7 +8843,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -6350,17 +8858,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -6413,17 +8921,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -6461,7 +8969,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -6476,506 +8984,779 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>Thu</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
         <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>CS307 (Lab)</t>
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Allocated Rooms</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>HS261</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>HS361</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>HSS_B5</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>EC253</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>CS162</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DE352</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>C004</t>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
@@ -15,10 +15,10 @@
     <sheet name="Basket_Allocation" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Basket_Courses" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Classroom_Allocation" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Section_A" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Classroom_Utilization" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Basket_Course_Allocations" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Basket_Course_Allocations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Classroom_Allocation" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Section_A" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Classroom_Utilization" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -484,27 +484,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C202]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C202]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C202]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
     </row>
@@ -526,17 +526,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DA262 [C202]</t>
+          <t>DA262 [C101]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS304 [C202]</t>
+          <t>CS304 [C101]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>CS307 [C101]</t>
         </is>
       </c>
     </row>
@@ -558,12 +558,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS304 [C202]</t>
+          <t>CS304 [C101]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>CS307 [C101]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L404]</t>
+          <t>DA262 [C101]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L402]</t>
+          <t>CS307 (Lab) [L408]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -644,12 +644,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C202]</t>
+          <t>CS304 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L404]</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L402]</t>
+          <t>CS307 (Lab) [L408]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,17 +676,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DA261 [C202]</t>
+          <t>DA261 [C104]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DA262 [C202]</t>
+          <t>DA261 (Lab) [L208]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L408]</t>
+          <t>DA262 (Lab) [L208]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -713,12 +713,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DA261 (Lab) [L208]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L408]</t>
+          <t>DA262 (Lab) [L208]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -740,27 +740,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C202]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C202]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C202]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
     </row>
@@ -770,6 +770,3649 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -823,27 +4466,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C202]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C202]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C202]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
     </row>
@@ -865,17 +4508,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DA262 [C202]</t>
+          <t>DA262 [C101]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS304 [C202]</t>
+          <t>CS304 [C101]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>CS307 [C101]</t>
         </is>
       </c>
     </row>
@@ -897,12 +4540,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS304 [C202]</t>
+          <t>CS304 [C101]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>CS307 [C101]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -956,7 +4599,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L107]</t>
+          <t>DA262 [C101]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -983,12 +4626,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C202]</t>
+          <t>CS304 (Tutorial) [C101]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L107]</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1015,17 +4658,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DA261 [C202]</t>
+          <t>DA261 [C104]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DA262 [C202]</t>
+          <t>DA261 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L106]</t>
+          <t>DA262 (Lab) [L208]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1052,12 +4695,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DA261 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L106]</t>
+          <t>DA262 (Lab) [L208]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1079,27 +4722,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C202]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C202]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C202]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
     </row>
@@ -1108,7 +4751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1313,16 +4956,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1415,16 +5058,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1483,16 +5126,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1517,16 +5160,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1585,16 +5228,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>66.25</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1755,16 +5398,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1789,16 +5432,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2361,359 +6004,6 @@
       <c r="H37" t="inlineStr">
         <is>
           <t>TV</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Allocated Rooms</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>HS261</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>HS361</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>HS363</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>HSS_B5</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>EC253</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>CS162</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>DE352</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2967,7 +6257,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -3014,7 +6304,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C202, L404</t>
+          <t>L208, C104</t>
         </is>
       </c>
     </row>
@@ -3061,7 +6351,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C202, L408</t>
+          <t>L208, C101</t>
         </is>
       </c>
     </row>
@@ -3108,7 +6398,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C202, L402</t>
+          <t>C101, L408</t>
         </is>
       </c>
     </row>
@@ -3254,7 +6544,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA261, MA262</t>
+          <t>MA262, MA261</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3266,7 +6556,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3285,7 +6575,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3293,23 +6583,23 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CS304, MINOR: Generative Ai, MINOR: Cybersecurity...</t>
+          <t>CS304, DA262, MINOR: Cybersecurity...</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3319,16 +6609,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3340,55 +6630,55 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DA261</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>2</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>DA261 (Lab), DA262 (Lab)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -3426,7 +6716,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -3762,7 +7052,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3984,7 +7274,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 19:02</t>
+          <t>2026-01-20 00:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4051,7 +7341,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13 courses in baskets</t>
+          <t>7 courses in baskets</t>
         </is>
       </c>
     </row>
@@ -4090,12 +7380,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>34.4%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A: 66.7%, B: 0.0%</t>
+          <t>A: 68.9%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -4117,7 +7407,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Score: 40.0/100</t>
+          <t>Score: 40.3/100</t>
         </is>
       </c>
     </row>
@@ -4215,12 +7505,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC251, EC252, CS253, EC254, CS152, ASD352, CS251, EC251, EC252, CS253, EC254, CS152, ASD352</t>
+          <t>EC251, EC252, CS253, EC254, CS152, ASD352, CS251</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -5684,7 +8974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5747,11 +9037,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -5782,11 +9072,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -5817,11 +9107,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -5852,11 +9142,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -5887,11 +9177,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -5922,11 +9212,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -5957,11 +9247,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -5969,216 +9259,6 @@
         </is>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>13</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>13</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>13</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>13</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>13</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -6195,7 +9275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6206,3557 +9286,334 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Semester</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Branch</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Section</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Day</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Room Type</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Capacity</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Conflict</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Allocation Type</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Basket</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>room</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>course</t>
+          <t>Allocated Rooms</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>MINOR: Generative Ai</t>
-        </is>
-      </c>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial)</t>
-        </is>
-      </c>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>DA261</t>
-        </is>
-      </c>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>MINOR: VLSI</t>
-        </is>
-      </c>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>C001, C002, C004</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>MA262</t>
+          <t>C001, C003, C101</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>MA261</t>
+          <t>C002, C003, C101</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>L107</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>DA261 (Lab)</t>
+          <t>C001, C102</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>L107</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>DA261 (Lab)</t>
+          <t>C101, C104</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>DA262</t>
+          <t>C004, C102</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>MINOR: DSAI</t>
+          <t>C104, C202</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>MINOR: Design</t>
-        </is>
-      </c>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>DA262</t>
+          <t>C001, C002, C004</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>3</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>CS304</t>
+          <t>C001, C003, C101</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>3</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>L106</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>3</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>L106</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>DA262 (Lab)</t>
+          <t>C001, C102</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>3</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>MINOR: Generative Ai</t>
-        </is>
-      </c>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>3</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>MINOR: VLSI</t>
-        </is>
-      </c>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>3</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DSAI</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>3</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>L106</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>3</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>L106</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>3</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>MINOR: Cybersecurity</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>3</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>07:30-09:00</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>MINOR: DSAI</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>3</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>3</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>18:30-20:00</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>MINOR: Design</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>3</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>3</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>3</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>3</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>3</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>3</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>3</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>3</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>3</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>3</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>3</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>3</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>3</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>3</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>3</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>3</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>3</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>3</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>3</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>3</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>3</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>3</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>3</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>L208</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>3</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>3</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>3</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>3</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>3</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>DA261</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>3</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>L106</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>3</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>L106</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
+          <t>C104, C202</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
@@ -484,27 +484,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C202]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
     </row>
@@ -526,17 +526,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DA262 [C101]</t>
+          <t>DA262 [C202]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS304 [C101]</t>
+          <t>CS304 [C202]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>CS307 [C202]</t>
         </is>
       </c>
     </row>
@@ -558,12 +558,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS304 [C101]</t>
+          <t>CS304 [C202]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>CS307 [C202]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DA262 [C101]</t>
+          <t>DA262 [C202]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>CS307 (Lab) [L406]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C101]</t>
+          <t>CS304 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>CS307 (Lab) [L406]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,17 +676,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DA261 [C104]</t>
+          <t>DA261 [C202]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L208]</t>
+          <t>DA261 (Lab) [L406]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L208]</t>
+          <t>DA262 (Lab) [L403]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -713,12 +713,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L208]</t>
+          <t>DA261 (Lab) [L406]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L208]</t>
+          <t>DA262 (Lab) [L403]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -740,27 +740,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C202]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -905,7 +905,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1153,7 +1153,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1217,7 +1217,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1281,7 +1281,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1465,7 +1465,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1505,17 +1505,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -1529,7 +1529,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1569,17 +1569,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I13" t="b">
@@ -1593,7 +1593,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1657,7 +1657,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1721,7 +1721,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1785,7 +1785,7 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1849,7 +1849,7 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1889,17 +1889,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -1913,7 +1913,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1953,17 +1953,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -1977,7 +1977,7 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2041,7 +2041,7 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2105,7 +2105,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2169,7 +2169,7 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2233,7 +2233,7 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2273,17 +2273,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -2297,7 +2297,7 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2337,17 +2337,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -2361,7 +2361,7 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2425,7 +2425,7 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2489,7 +2489,7 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2553,7 +2553,7 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2617,7 +2617,7 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2662,12 +2662,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -2685,12 +2685,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2725,17 +2725,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -2753,12 +2753,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2793,17 +2793,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -2821,12 +2821,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2861,17 +2861,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -2889,12 +2889,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2929,15 +2929,19 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I34" t="b">
         <v>0</v>
       </c>
@@ -2953,12 +2957,12 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2998,12 +3002,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -3021,12 +3025,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3066,12 +3070,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -3089,7 +3093,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3129,17 +3133,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -3157,12 +3161,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3197,15 +3201,19 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I38" t="b">
         <v>0</v>
       </c>
@@ -3221,12 +3229,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3266,12 +3274,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -3289,12 +3297,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3329,17 +3337,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -3357,12 +3365,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3402,12 +3410,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -3425,12 +3433,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3465,17 +3473,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -3493,12 +3501,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3533,12 +3541,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3561,7 +3569,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3601,17 +3609,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -3629,12 +3637,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3669,17 +3677,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -3697,12 +3705,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3737,15 +3745,19 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I46" t="b">
         <v>0</v>
       </c>
@@ -3761,12 +3773,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3806,12 +3818,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -3829,12 +3841,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3874,12 +3886,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -3897,12 +3909,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3937,17 +3949,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -3965,12 +3977,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4005,12 +4017,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -4033,7 +4045,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -4046,366 +4058,6 @@
           <t>Lecture</t>
         </is>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>3</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>3</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>3</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>3</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>DA261</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>3</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>L208</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>DA261 (Lab)</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>3</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>L208</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>DA261 (Lab)</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4466,27 +4118,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C202]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
     </row>
@@ -4508,17 +4160,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DA262 [C101]</t>
+          <t>DA262 [C202]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS304 [C101]</t>
+          <t>CS304 [C202]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>CS307 [C202]</t>
         </is>
       </c>
     </row>
@@ -4540,12 +4192,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS304 [C101]</t>
+          <t>CS304 [C202]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>CS307 [C202]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4599,7 +4251,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DA262 [C101]</t>
+          <t>DA262 [C202]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4609,7 +4261,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L406]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4626,7 +4278,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C101]</t>
+          <t>CS304 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4641,7 +4293,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L406]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4658,17 +4310,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DA261 [C104]</t>
+          <t>DA261 [C202]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L207]</t>
+          <t>DA261 (Lab) [L406]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L208]</t>
+          <t>DA262 (Lab) [L408]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -4695,12 +4347,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DA261 (Lab) [L207]</t>
+          <t>DA261 (Lab) [L406]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L208]</t>
+          <t>DA262 (Lab) [L408]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -4722,27 +4374,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C202]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C202]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C202]</t>
         </is>
       </c>
     </row>
@@ -4956,16 +4608,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -5058,16 +4710,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -5126,16 +4778,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -5228,16 +4880,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>66.25</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -5398,16 +5050,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -5432,16 +5084,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -5922,16 +5574,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -5990,16 +5642,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -6257,7 +5909,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -6304,7 +5956,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>L208, C104</t>
+          <t>L406, C202</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6003,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>L208, C101</t>
+          <t>C202, L403</t>
         </is>
       </c>
     </row>
@@ -6398,7 +6050,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C101, L408</t>
+          <t>L406, C202</t>
         </is>
       </c>
     </row>
@@ -6460,7 +6112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6544,7 +6196,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA262, MA261</t>
+          <t>MA261, MA262</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6556,7 +6208,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -6575,7 +6227,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -6583,23 +6235,23 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CS304, DA262, MINOR: Cybersecurity...</t>
+          <t>DA261, CS304 (Tutorial), MINOR: Cybersecurity...</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -6609,16 +6261,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -6630,34 +6282,34 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6673,55 +6325,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>DA261 (Lab), DA262 (Lab)</t>
+          <t>CS307 (Lab), DA261 (Lab)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>0.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -7274,7 +6883,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-20 00:15</t>
+          <t>2026-01-23 00:22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7358,12 +6967,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5/36</t>
+          <t>4/36</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Utilization: 13.9%</t>
+          <t>Utilization: 11.1%</t>
         </is>
       </c>
     </row>
@@ -9391,7 +9000,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C001, C002, C004</t>
+          <t>L402, L404</t>
         </is>
       </c>
     </row>
@@ -9408,7 +9017,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C003, C101</t>
+          <t>L403, L405</t>
         </is>
       </c>
     </row>
@@ -9425,7 +9034,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002, C003, C101</t>
+          <t>L404, L406</t>
         </is>
       </c>
     </row>
@@ -9442,7 +9051,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C001, C102</t>
+          <t>L405, L407</t>
         </is>
       </c>
     </row>
@@ -9459,7 +9068,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C101, C104</t>
+          <t>L406, L408</t>
         </is>
       </c>
     </row>
@@ -9476,7 +9085,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C004, C102</t>
+          <t>C004, L407</t>
         </is>
       </c>
     </row>
@@ -9493,7 +9102,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C104, C202</t>
+          <t>C003, L408</t>
         </is>
       </c>
     </row>
@@ -9523,7 +9132,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C001, C002, C004</t>
+          <t>L402, L404</t>
         </is>
       </c>
     </row>
@@ -9540,7 +9149,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C001, C003, C101</t>
+          <t>L403, L405</t>
         </is>
       </c>
     </row>
@@ -9570,7 +9179,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C001, C102</t>
+          <t>L405, L407</t>
         </is>
       </c>
     </row>
@@ -9613,7 +9222,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C104, C202</t>
+          <t>C003, L408</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -763,22 +763,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C001]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MA261 [C001]</t>
+          <t>MA261 [C003]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -979,22 +979,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C001]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C001]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C001]</t>
         </is>
       </c>
     </row>
@@ -2606,16 +2606,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>30</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -2636,16 +2636,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -2670,16 +2670,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -2704,16 +2704,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E5" t="n">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2908,16 +2908,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2942,16 +2942,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -4017,7 +4017,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -5097,7 +5097,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5169,7 +5169,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -6053,7 +6053,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6101,15 +6101,19 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
@@ -6125,7 +6129,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6181,11 +6185,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="b">
         <v>0</v>
       </c>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6249,12 +6249,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -6277,7 +6277,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6653,7 +6653,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6697,19 +6697,15 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="b">
         <v>0</v>
       </c>
@@ -6721,7 +6717,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6846,10 +6842,14 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
@@ -6861,7 +6861,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7125,19 +7125,15 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="b">
         <v>0</v>
       </c>
@@ -7149,7 +7145,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7197,19 +7193,15 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="b">
         <v>0</v>
       </c>
@@ -7221,7 +7213,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7557,19 +7549,15 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="b">
         <v>0</v>
       </c>
@@ -7581,7 +7569,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -7629,19 +7617,15 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="b">
         <v>0</v>
       </c>
@@ -7653,7 +7637,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -7989,19 +7973,15 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="b">
         <v>0</v>
       </c>
@@ -8013,7 +7993,7 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -8061,19 +8041,15 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="b">
         <v>0</v>
       </c>
@@ -8085,7 +8061,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -8205,19 +8181,15 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="b">
         <v>0</v>
       </c>
@@ -8229,7 +8201,7 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -8355,7 +8327,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -8373,7 +8345,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -8449,7 +8421,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -8525,7 +8497,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -8583,7 +8555,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -8601,7 +8573,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -8659,7 +8631,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -8677,7 +8649,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -8753,7 +8725,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -8877,17 +8849,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -8905,7 +8877,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -8981,7 +8953,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -9057,7 +9029,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -9115,7 +9087,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -9133,7 +9105,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -9191,7 +9163,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -9209,7 +9181,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -9285,7 +9257,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -9495,7 +9467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C001, C004, C203</t>
+          <t>C004, C104</t>
         </is>
       </c>
     </row>
@@ -9512,7 +9484,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001, C002, C204</t>
+          <t>C001, C203</t>
         </is>
       </c>
     </row>
@@ -9529,7 +9501,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C101, C205</t>
+          <t>C002, C204</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9518,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C101, C102, C302</t>
+          <t>C101, C205</t>
         </is>
       </c>
     </row>
@@ -9563,7 +9535,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C102, C104, C303</t>
+          <t>C102, C302</t>
         </is>
       </c>
     </row>
@@ -9580,7 +9552,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C104, C202, C304</t>
+          <t>C202, C303</t>
         </is>
       </c>
     </row>
@@ -9597,7 +9569,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C202, C203, C305</t>
+          <t>C304, C305</t>
         </is>
       </c>
     </row>
@@ -9705,7 +9677,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C001, C004, C203</t>
+          <t>C004, C104</t>
         </is>
       </c>
     </row>
@@ -9722,7 +9694,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C001, C002, C204</t>
+          <t>C001, C203</t>
         </is>
       </c>
     </row>
@@ -9752,7 +9724,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C101, C102, C302</t>
+          <t>C101, C205</t>
         </is>
       </c>
     </row>
@@ -9795,7 +9767,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C202, C203, C305</t>
+          <t>C304, C305</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
+++ b/backend/output_timetables/sem3_DSAI_timetable_baskets.xlsx
@@ -474,22 +474,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -501,22 +501,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C003]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DA262 [C004]</t>
+          <t>DA262 [C202]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS304 [C004]</t>
+          <t>CS304 [C202]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C202]</t>
         </is>
       </c>
     </row>
@@ -533,12 +533,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS304 [C004]</t>
+          <t>CS304 [C202]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C202]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DA262 [C004]</t>
+          <t>DA262 [C202]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -690,22 +690,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -763,22 +763,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C001]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
@@ -790,22 +790,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MA262 [C003]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DA262 [C101]</t>
+          <t>DA262 [C203]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS304 [C101]</t>
+          <t>CS304 [C203]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>CS307 [C203]</t>
         </is>
       </c>
     </row>
@@ -822,12 +822,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS304 [C101]</t>
+          <t>CS304 [C203]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>CS307 [C203]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DA262 [C101]</t>
+          <t>DA262 [C203]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -979,22 +979,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C001]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C001]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C001]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C001]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -2606,16 +2606,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -2704,16 +2704,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2738,16 +2738,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -2772,16 +2772,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2908,16 +2908,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -2942,16 +2942,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -3010,16 +3010,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E14" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>22.5</v>
+        <v>45</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3044,16 +3044,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -3248,16 +3248,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>7.5</v>
+        <v>30</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -3921,17 +3921,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -3945,7 +3945,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -3993,17 +3993,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -4017,7 +4017,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -4137,17 +4137,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -4161,7 +4161,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -4353,17 +4353,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -4377,7 +4377,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -4425,17 +4425,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -4449,7 +4449,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -4497,17 +4497,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -4521,7 +4521,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -4569,17 +4569,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -4593,7 +4593,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -4785,17 +4785,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -4809,7 +4809,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -4857,17 +4857,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -4881,7 +4881,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -4929,17 +4929,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -4953,7 +4953,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -5001,17 +5001,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -5025,7 +5025,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5097,7 +5097,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5169,7 +5169,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5217,17 +5217,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -5241,7 +5241,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5289,17 +5289,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -5313,7 +5313,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5361,17 +5361,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -5385,7 +5385,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5433,17 +5433,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -5457,7 +5457,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5505,17 +5505,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J24" t="b">
@@ -5529,7 +5529,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -5573,17 +5573,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5649,15 +5649,19 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
@@ -5673,7 +5677,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5721,12 +5725,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -5749,7 +5753,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5825,7 +5829,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5883,7 +5887,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -5901,7 +5905,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -5959,7 +5963,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -5977,7 +5981,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -6053,7 +6057,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -6101,17 +6105,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -6129,7 +6133,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6177,15 +6181,19 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J33" t="b">
         <v>0</v>
       </c>
@@ -6201,7 +6209,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6249,12 +6257,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -6277,7 +6285,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6353,7 +6361,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6411,7 +6419,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -6429,7 +6437,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6487,7 +6495,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -6505,7 +6513,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6581,7 +6589,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6653,7 +6661,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6697,15 +6705,19 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
@@ -6717,7 +6729,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6765,17 +6777,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -6789,7 +6801,7 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -6919,7 +6931,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -6933,7 +6945,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7125,15 +7137,19 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
@@ -7145,7 +7161,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7193,15 +7209,19 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
@@ -7213,7 +7233,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7271,7 +7291,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -7285,7 +7305,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -7343,7 +7363,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -7357,7 +7377,7 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -7549,15 +7569,19 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
@@ -7569,7 +7593,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -7617,15 +7641,19 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
@@ -7637,7 +7665,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -7695,7 +7723,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -7709,7 +7737,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -7767,7 +7795,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -7781,7 +7809,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -7973,15 +8001,19 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
@@ -7993,7 +8025,7 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -8041,15 +8073,19 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
@@ -8061,7 +8097,7 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -8119,7 +8155,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -8133,7 +8169,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -8181,15 +8217,19 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
@@ -8201,7 +8241,7 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -8259,7 +8299,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -8273,7 +8313,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -8345,7 +8385,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -8403,7 +8443,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -8421,7 +8461,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -8479,7 +8519,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -8497,7 +8537,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -8555,7 +8595,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -8573,7 +8613,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -8631,7 +8671,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -8649,7 +8689,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -8725,7 +8765,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -8801,7 +8841,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -8877,7 +8917,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -8935,7 +8975,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -8953,7 +8993,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -9011,7 +9051,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -9029,7 +9069,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -9087,7 +9127,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -9105,7 +9145,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -9163,7 +9203,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -9181,7 +9221,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -9257,7 +9297,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -9333,7 +9373,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -9467,7 +9507,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C104</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -9484,7 +9524,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001, C203</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -9501,7 +9541,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C204</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -9518,7 +9558,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C101, C205</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -9535,7 +9575,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C102, C302</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -9552,7 +9592,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C202, C303</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -9569,7 +9609,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C304, C305</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -9677,7 +9717,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C004, C104</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -9694,7 +9734,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C001, C203</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -9724,7 +9764,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C101, C205</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -9767,7 +9807,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C304, C305</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
